--- a/public/template_excel/template_excel_thong_ke_tai_lieu.xlsx
+++ b/public/template_excel/template_excel_thong_ke_tai_lieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C37046-A560-4817-9E9F-BCA7CAB3BA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C157C874-987C-44FC-B405-5BFCC50EA91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FD9ADC4E-60BC-4AC6-BC75-3FEB8F7F1922}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{FD9ADC4E-60BC-4AC6-BC75-3FEB8F7F1922}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Tổng số tiền</t>
-  </si>
-  <si>
     <t>TT</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Trị giá</t>
+  </si>
+  <si>
+    <t>Tổng số tiền:</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -188,11 +188,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -207,6 +216,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,19 +235,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,12 +586,16 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I9" sqref="I9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
     <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="3.625" customWidth="1"/>
     <col min="15" max="15" width="15.25" customWidth="1"/>
@@ -593,121 +612,128 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="H6" s="9" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="H7" s="9" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="H7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="H8" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="H9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="12"/>
+      <c r="O10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="I9:L9"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="B7:E7"/>
@@ -715,13 +741,6 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
